--- a/result/without_base/12/valence/s01_9.xlsx
+++ b/result/without_base/12/valence/s01_9.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.5224999785423279</v>
+        <v>0.5250000059604645</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -510,13 +510,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001</v>
+        <v>5e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5200000107288361</v>
+        <v>0.5550000071525574</v>
       </c>
       <c r="C2" t="n">
-        <v>5079.369384765625</v>
+        <v>41687.595703125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5299999984827909</v>
+        <v>0.5809090841900219</v>
       </c>
       <c r="E2" t="n">
-        <v>5079.18017578125</v>
+        <v>41687.32670454546</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5300000011920929</v>
+        <v>0.5399999916553497</v>
       </c>
       <c r="C3" t="n">
-        <v>4976.689697265625</v>
+        <v>40909.892578125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5380681834437631</v>
+        <v>0.5842045491391962</v>
       </c>
       <c r="E3" t="n">
-        <v>4976.521706321023</v>
+        <v>40906.99822443182</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +606,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5424999892711639</v>
+        <v>0.5324999988079071</v>
       </c>
       <c r="C4" t="n">
-        <v>4876.13134765625</v>
+        <v>40143.787109375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5499999956651167</v>
+        <v>0.6186363697052002</v>
       </c>
       <c r="E4" t="n">
-        <v>4876.045498934659</v>
+        <v>40140.45490056818</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +623,1308 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
+        <v>0.570000022649765</v>
+      </c>
+      <c r="C5" t="n">
+        <v>39393.728515625</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6292045387354764</v>
+      </c>
+      <c r="E5" t="n">
+        <v>39390.49005681818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5525000095367432</v>
+      </c>
+      <c r="C6" t="n">
+        <v>38659.216796875</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6126136400482871</v>
+      </c>
+      <c r="E6" t="n">
+        <v>38656.69992897727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5999999940395355</v>
+      </c>
+      <c r="C7" t="n">
+        <v>37936.748046875</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6427272774956443</v>
+      </c>
+      <c r="E7" t="n">
+        <v>37932.40802556818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5300000011920929</v>
+      </c>
+      <c r="C8" t="n">
+        <v>37222.271484375</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6804545359178023</v>
+      </c>
+      <c r="E8" t="n">
+        <v>37217.16122159091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5724999904632568</v>
+      </c>
+      <c r="C9" t="n">
+        <v>36521.1328125</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.659431820566004</v>
+      </c>
+      <c r="E9" t="n">
+        <v>36516.96803977273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5374999940395355</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35832.333984375</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7029545415531505</v>
+      </c>
+      <c r="E10" t="n">
+        <v>35827.32457386364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="C11" t="n">
+        <v>35154.361328125</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7004545439373363</v>
+      </c>
+      <c r="E11" t="n">
+        <v>35149.68678977273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5550000071525574</v>
+      </c>
+      <c r="C12" t="n">
+        <v>34488.58984375</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7097727277062156</v>
+      </c>
+      <c r="E12" t="n">
+        <v>34482.97159090909</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5374999940395355</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33833.111328125</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7348863699219443</v>
+      </c>
+      <c r="E13" t="n">
+        <v>33827.60653409091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.502499982714653</v>
+      </c>
+      <c r="C14" t="n">
+        <v>33189.552734375</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7619318149306558</v>
+      </c>
+      <c r="E14" t="n">
+        <v>33184.13778409091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="C15" t="n">
+        <v>32556.5625</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7796590924263</v>
+      </c>
+      <c r="E15" t="n">
+        <v>32550.98739346591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5074999928474426</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31935.1806640625</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7935227318243547</v>
+      </c>
+      <c r="E16" t="n">
+        <v>31929.27397017046</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5275000035762787</v>
+      </c>
+      <c r="C17" t="n">
+        <v>31324.7587890625</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.802499998699535</v>
+      </c>
+      <c r="E17" t="n">
+        <v>31318.30983664773</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5450000166893005</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30723.9833984375</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8181818127632141</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30717.96839488636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5475000143051147</v>
+      </c>
+      <c r="C19" t="n">
+        <v>30133.77734375</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8318181796507402</v>
+      </c>
+      <c r="E19" t="n">
+        <v>30128.17009943182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="C20" t="n">
+        <v>29554.5888671875</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8187500075860457</v>
+      </c>
+      <c r="E20" t="n">
+        <v>29549.11008522727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5825000107288361</v>
+      </c>
+      <c r="C21" t="n">
+        <v>28985.494140625</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8376136313785206</v>
+      </c>
+      <c r="E21" t="n">
+        <v>28979.93678977273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5349999964237213</v>
+      </c>
+      <c r="C22" t="n">
+        <v>28426.6591796875</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8489772731607611</v>
+      </c>
+      <c r="E22" t="n">
+        <v>28420.95632102273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5424999892711639</v>
+      </c>
+      <c r="C23" t="n">
+        <v>27877.6201171875</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.843409083106301</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27872.18643465909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.570000022649765</v>
+      </c>
+      <c r="C24" t="n">
+        <v>27337.8896484375</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8437500054186041</v>
+      </c>
+      <c r="E24" t="n">
+        <v>27332.82013494318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5850000083446503</v>
+      </c>
+      <c r="C25" t="n">
+        <v>26808.31640625</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8507954532449896</v>
+      </c>
+      <c r="E25" t="n">
+        <v>26803.25479403409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="C26" t="n">
+        <v>26288.0078125</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.878181820566004</v>
+      </c>
+      <c r="E26" t="n">
+        <v>26283.04154829546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
         <v>0.5224999785423279</v>
       </c>
-      <c r="C5" t="n">
-        <v>4777.702880859375</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5522727207704023</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4777.546475497159</v>
+      <c r="C27" t="n">
+        <v>25777.400390625</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8771590915593234</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25772.45845170454</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5550000071525574</v>
+      </c>
+      <c r="C28" t="n">
+        <v>25275.5224609375</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.875795456496152</v>
+      </c>
+      <c r="E28" t="n">
+        <v>25270.95081676136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5150000005960464</v>
+      </c>
+      <c r="C29" t="n">
+        <v>24783.7666015625</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8659090887416493</v>
+      </c>
+      <c r="E29" t="n">
+        <v>24778.71661931818</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5349999964237213</v>
+      </c>
+      <c r="C30" t="n">
+        <v>24300.0556640625</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8806818181818182</v>
+      </c>
+      <c r="E30" t="n">
+        <v>24295.03817471591</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="C31" t="n">
+        <v>23824.93359375</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8853409073569558</v>
+      </c>
+      <c r="E31" t="n">
+        <v>23820.29580965909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5475000143051147</v>
+      </c>
+      <c r="C32" t="n">
+        <v>23359.09765625</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8852272629737854</v>
+      </c>
+      <c r="E32" t="n">
+        <v>23354.24786931818</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5674999952316284</v>
+      </c>
+      <c r="C33" t="n">
+        <v>22901.1845703125</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9031818129799583</v>
+      </c>
+      <c r="E33" t="n">
+        <v>22896.59357244318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5349999964237213</v>
+      </c>
+      <c r="C34" t="n">
+        <v>22451.755859375</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8984090956774625</v>
+      </c>
+      <c r="E34" t="n">
+        <v>22447.38121448864</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="C35" t="n">
+        <v>22010.5439453125</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9104545441540804</v>
+      </c>
+      <c r="E35" t="n">
+        <v>22006.26615767046</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5424999892711639</v>
+      </c>
+      <c r="C36" t="n">
+        <v>21577.654296875</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9187500043348833</v>
+      </c>
+      <c r="E36" t="n">
+        <v>21573.26065340909</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5575000047683716</v>
+      </c>
+      <c r="C37" t="n">
+        <v>21152.5625</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9065909006378867</v>
+      </c>
+      <c r="E37" t="n">
+        <v>21148.30220170454</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5550000071525574</v>
+      </c>
+      <c r="C38" t="n">
+        <v>20735.193359375</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9085227142680775</v>
+      </c>
+      <c r="E38" t="n">
+        <v>20731.02947443182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5399999916553497</v>
+      </c>
+      <c r="C39" t="n">
+        <v>20325.201171875</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9212500073693015</v>
+      </c>
+      <c r="E39" t="n">
+        <v>20321.41104403409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5699999928474426</v>
+      </c>
+      <c r="C40" t="n">
+        <v>19922.8798828125</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9013636274771257</v>
+      </c>
+      <c r="E40" t="n">
+        <v>19919.52272727273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="C41" t="n">
+        <v>19528.53125</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9061363664540377</v>
+      </c>
+      <c r="E41" t="n">
+        <v>19524.77059659091</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5349999964237213</v>
+      </c>
+      <c r="C42" t="n">
+        <v>19141.025390625</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9260227300904014</v>
+      </c>
+      <c r="E42" t="n">
+        <v>19137.34889914773</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5575000047683716</v>
+      </c>
+      <c r="C43" t="n">
+        <v>18761.064453125</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.9123863632028754</v>
+      </c>
+      <c r="E43" t="n">
+        <v>18757.22638494318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5874999761581421</v>
+      </c>
+      <c r="C44" t="n">
+        <v>18387.2734375</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9307954582301053</v>
+      </c>
+      <c r="E44" t="n">
+        <v>18383.98206676136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5425000190734863</v>
+      </c>
+      <c r="C45" t="n">
+        <v>18020.9462890625</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9255681796507402</v>
+      </c>
+      <c r="E45" t="n">
+        <v>18017.74857954546</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5324999988079071</v>
+      </c>
+      <c r="C46" t="n">
+        <v>17661.5205078125</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9342045458880338</v>
+      </c>
+      <c r="E46" t="n">
+        <v>17658.2265625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5550000071525574</v>
+      </c>
+      <c r="C47" t="n">
+        <v>17308.6123046875</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9196590997956016</v>
+      </c>
+      <c r="E47" t="n">
+        <v>17305.48952414773</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5925000011920929</v>
+      </c>
+      <c r="C48" t="n">
+        <v>16962.2568359375</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.9226136315952648</v>
+      </c>
+      <c r="E48" t="n">
+        <v>16959.22958096591</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5550000071525574</v>
+      </c>
+      <c r="C49" t="n">
+        <v>16622.396484375</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.920227278362621</v>
+      </c>
+      <c r="E49" t="n">
+        <v>16619.46058238636</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5374999940395355</v>
+      </c>
+      <c r="C50" t="n">
+        <v>16288.9462890625</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9064772725105286</v>
+      </c>
+      <c r="E50" t="n">
+        <v>16286.05797230114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5925000011920929</v>
+      </c>
+      <c r="C51" t="n">
+        <v>15961.76123046875</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9236363660205494</v>
+      </c>
+      <c r="E51" t="n">
+        <v>15958.70108309659</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5349999964237213</v>
+      </c>
+      <c r="C52" t="n">
+        <v>15640.6318359375</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.9346590909090909</v>
+      </c>
+      <c r="E52" t="n">
+        <v>15637.52574573864</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5525000095367432</v>
+      </c>
+      <c r="C53" t="n">
+        <v>15325.296875</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.9226136370138689</v>
+      </c>
+      <c r="E53" t="n">
+        <v>15322.41734730114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5800000131130219</v>
+      </c>
+      <c r="C54" t="n">
+        <v>15015.7548828125</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.9359090870076959</v>
+      </c>
+      <c r="E54" t="n">
+        <v>15013.04483309659</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="C55" t="n">
+        <v>14712.27490234375</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.923068182034926</v>
+      </c>
+      <c r="E55" t="n">
+        <v>14709.587890625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5850000083446503</v>
+      </c>
+      <c r="C56" t="n">
+        <v>14414.44287109375</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.933068183335391</v>
+      </c>
+      <c r="E56" t="n">
+        <v>14411.77228338068</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5449999868869781</v>
+      </c>
+      <c r="C57" t="n">
+        <v>14122.44677734375</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.9288636445999146</v>
+      </c>
+      <c r="E57" t="n">
+        <v>14119.55362215909</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5675000250339508</v>
+      </c>
+      <c r="C58" t="n">
+        <v>13835.3486328125</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.9130681807344611</v>
+      </c>
+      <c r="E58" t="n">
+        <v>13832.84969815341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5249999761581421</v>
+      </c>
+      <c r="C59" t="n">
+        <v>13554.11328125</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.9281818216497247</v>
+      </c>
+      <c r="E59" t="n">
+        <v>13551.44034090909</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5424999892711639</v>
+      </c>
+      <c r="C60" t="n">
+        <v>13278.0185546875</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.9369318160143766</v>
+      </c>
+      <c r="E60" t="n">
+        <v>13275.36825284091</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5250000059604645</v>
+      </c>
+      <c r="C61" t="n">
+        <v>13007.18310546875</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.9113636287775907</v>
+      </c>
+      <c r="E61" t="n">
+        <v>13004.60395951705</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5050000101327896</v>
+      </c>
+      <c r="C62" t="n">
+        <v>12741.453125</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.8890909064899791</v>
+      </c>
+      <c r="E62" t="n">
+        <v>12738.919921875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.4824999868869781</v>
+      </c>
+      <c r="C63" t="n">
+        <v>12480.66015625</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.9187499934976752</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12478.05877130682</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5799999833106995</v>
+      </c>
+      <c r="C64" t="n">
+        <v>12224.42138671875</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.9345454519445245</v>
+      </c>
+      <c r="E64" t="n">
+        <v>12222.19247159091</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5699999928474426</v>
+      </c>
+      <c r="C65" t="n">
+        <v>11973.9189453125</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.9093181816014376</v>
+      </c>
+      <c r="E65" t="n">
+        <v>11971.310546875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5425000190734863</v>
+      </c>
+      <c r="C66" t="n">
+        <v>11727.40771484375</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.9435227296569131</v>
+      </c>
+      <c r="E66" t="n">
+        <v>11724.98295454545</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5225000083446503</v>
+      </c>
+      <c r="C67" t="n">
+        <v>11485.8466796875</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.9420454556291754</v>
+      </c>
+      <c r="E67" t="n">
+        <v>11483.43803267045</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5850000083446503</v>
+      </c>
+      <c r="C68" t="n">
+        <v>11248.81640625</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.9193181883205067</v>
+      </c>
+      <c r="E68" t="n">
+        <v>11246.52361505682</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5725000202655792</v>
+      </c>
+      <c r="C69" t="n">
+        <v>11016.07763671875</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.8959090872244402</v>
+      </c>
+      <c r="E69" t="n">
+        <v>11014.12171519886</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5699999928474426</v>
+      </c>
+      <c r="C70" t="n">
+        <v>10787.9453125</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.9092045426368713</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10786.03284801136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5374999940395355</v>
+      </c>
+      <c r="C71" t="n">
+        <v>10564.28173828125</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.9242045445875688</v>
+      </c>
+      <c r="E71" t="n">
+        <v>10562.29598721591</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5675000250339508</v>
+      </c>
+      <c r="C72" t="n">
+        <v>10344.94287109375</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.9311363751238043</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10342.87153764205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5174999982118607</v>
+      </c>
+      <c r="C73" t="n">
+        <v>10129.658203125</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.9104545441540804</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10127.68057528409</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5399999916553497</v>
+      </c>
+      <c r="C74" t="n">
+        <v>9918.35595703125</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.9325000047683716</v>
+      </c>
+      <c r="E74" t="n">
+        <v>9916.512162642046</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5649999976158142</v>
+      </c>
+      <c r="C75" t="n">
+        <v>9711.25927734375</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.9261363690549677</v>
+      </c>
+      <c r="E75" t="n">
+        <v>9709.447265625</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.6024999916553497</v>
+      </c>
+      <c r="C76" t="n">
+        <v>9508.125</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.9157954508608038</v>
+      </c>
+      <c r="E76" t="n">
+        <v>9506.378107244318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.612500011920929</v>
+      </c>
+      <c r="C77" t="n">
+        <v>9308.814453125</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9396590807221152</v>
+      </c>
+      <c r="E77" t="n">
+        <v>9307.114524147728</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="C78" t="n">
+        <v>9113.671875</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.9229545539075678</v>
+      </c>
+      <c r="E78" t="n">
+        <v>9111.768199573864</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5474999845027924</v>
+      </c>
+      <c r="C79" t="n">
+        <v>8921.9560546875</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.9302272742444818</v>
+      </c>
+      <c r="E79" t="n">
+        <v>8920.148082386364</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5300000011920929</v>
+      </c>
+      <c r="C80" t="n">
+        <v>8734.0029296875</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.9123863686214794</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8732.265269886364</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5250000059604645</v>
+      </c>
+      <c r="C81" t="n">
+        <v>8549.87255859375</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.9189772660082037</v>
+      </c>
+      <c r="E81" t="n">
+        <v>8547.98348721591</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C2" t="n">
         <v>0.007092198581560284</v>
@@ -678,79 +1970,79 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02127659574468085</v>
+        <v>0.007092198581560284</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02127659574468085</v>
+        <v>0.07092198581560284</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03546099290780142</v>
+        <v>0.07092198581560284</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.0202020202020202</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03546099290780142</v>
+        <v>0.0851063829787234</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.0202020202020202</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05673758865248227</v>
+        <v>0.0851063829787234</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05673758865248227</v>
+        <v>0.09929078014184398</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06382978723404255</v>
+        <v>0.09929078014184398</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -758,32 +2050,32 @@
         <v>0.06060606060606061</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06382978723404255</v>
+        <v>0.1063829787234043</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07092198581560284</v>
+        <v>0.1063829787234043</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.08080808080808081</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07092198581560284</v>
+        <v>0.1205673758865248</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -791,21 +2083,21 @@
         <v>0.08080808080808081</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07801418439716312</v>
+        <v>0.1205673758865248</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07801418439716312</v>
+        <v>0.1560283687943262</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -813,131 +2105,131 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09219858156028368</v>
+        <v>0.1560283687943262</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09219858156028368</v>
+        <v>0.2056737588652482</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09929078014184398</v>
+        <v>0.2056737588652482</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1313131313131313</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09929078014184398</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1313131313131313</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1205673758865248</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1414141414141414</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1205673758865248</v>
+        <v>0.2269503546099291</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1414141414141414</v>
+        <v>0.1313131313131313</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1276595744680851</v>
+        <v>0.2269503546099291</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1616161616161616</v>
+        <v>0.1313131313131313</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1276595744680851</v>
+        <v>0.2482269503546099</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1616161616161616</v>
+        <v>0.1414141414141414</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1560283687943262</v>
+        <v>0.2482269503546099</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1717171717171717</v>
+        <v>0.1414141414141414</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1560283687943262</v>
+        <v>0.2836879432624114</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1717171717171717</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1631205673758865</v>
+        <v>0.2836879432624114</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1631205673758865</v>
+        <v>0.2907801418439716</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -945,351 +2237,351 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1773049645390071</v>
+        <v>0.2907801418439716</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.202020202020202</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1773049645390071</v>
+        <v>0.2978723404255319</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.202020202020202</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1843971631205674</v>
+        <v>0.2978723404255319</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1843971631205674</v>
+        <v>0.3049645390070922</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1914893617021277</v>
+        <v>0.3049645390070922</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.2626262626262627</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1914893617021277</v>
+        <v>0.3191489361702128</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.2626262626262627</v>
+        <v>0.2323232323232323</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2765957446808511</v>
+        <v>0.3191489361702128</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2828282828282828</v>
+        <v>0.2323232323232323</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2765957446808511</v>
+        <v>0.3617021276595745</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2828282828282828</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2836879432624114</v>
+        <v>0.3617021276595745</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.3131313131313131</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2836879432624114</v>
+        <v>0.3687943262411347</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.3131313131313131</v>
+        <v>0.2525252525252525</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2978723404255319</v>
+        <v>0.3687943262411347</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.3232323232323233</v>
+        <v>0.2525252525252525</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2978723404255319</v>
+        <v>0.375886524822695</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.3232323232323233</v>
+        <v>0.2626262626262627</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3120567375886525</v>
+        <v>0.375886524822695</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.3535353535353535</v>
+        <v>0.2626262626262627</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3120567375886525</v>
+        <v>0.3829787234042553</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.3535353535353535</v>
+        <v>0.2929292929292929</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3191489361702128</v>
+        <v>0.3829787234042553</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.2929292929292929</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3191489361702128</v>
+        <v>0.3971631205673759</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3131313131313131</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3404255319148936</v>
+        <v>0.3971631205673759</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.3838383838383838</v>
+        <v>0.3131313131313131</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3404255319148936</v>
+        <v>0.4326241134751773</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3838383838383838</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3475177304964539</v>
+        <v>0.4326241134751773</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3475177304964539</v>
+        <v>0.4680851063829787</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3546099290780142</v>
+        <v>0.4680851063829787</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.404040404040404</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3546099290780142</v>
+        <v>0.4822695035460993</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.404040404040404</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3617021276595745</v>
+        <v>0.4822695035460993</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.4141414141414141</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3617021276595745</v>
+        <v>0.4893617021276596</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.4141414141414141</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3829787234042553</v>
+        <v>0.4893617021276596</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3829787234042553</v>
+        <v>0.4964539007092199</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.404040404040404</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3900709219858156</v>
+        <v>0.4964539007092199</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.4343434343434344</v>
+        <v>0.404040404040404</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3900709219858156</v>
+        <v>0.5035460992907801</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.4343434343434344</v>
+        <v>0.4141414141414141</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3971631205673759</v>
+        <v>0.5035460992907801</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4141414141414141</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3971631205673759</v>
+        <v>0.5106382978723404</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4113475177304964</v>
+        <v>0.5106382978723404</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4113475177304964</v>
+        <v>0.5177304964539007</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1297,790 +2589,603 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C59" t="n">
-        <v>0.425531914893617</v>
+        <v>0.5177304964539007</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C60" t="n">
-        <v>0.425531914893617</v>
+        <v>0.5460992907801419</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4326241134751773</v>
+        <v>0.5460992907801419</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4326241134751773</v>
+        <v>0.5815602836879432</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4893617021276596</v>
+        <v>0.5815602836879432</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4893617021276596</v>
+        <v>0.6028368794326241</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4964539007092199</v>
+        <v>0.6028368794326241</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4964539007092199</v>
+        <v>0.6170212765957447</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5106382978723404</v>
+        <v>0.6170212765957447</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5106382978723404</v>
+        <v>0.6382978723404256</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5177304964539007</v>
+        <v>0.6382978723404256</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5177304964539007</v>
+        <v>0.6950354609929078</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5602836879432624</v>
+        <v>0.6950354609929078</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5602836879432624</v>
+        <v>0.7163120567375887</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5815602836879432</v>
+        <v>0.7163120567375887</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5815602836879432</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5886524822695035</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5886524822695035</v>
+        <v>0.7659574468085106</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.6868686868686869</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6099290780141844</v>
+        <v>0.7659574468085106</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.6868686868686869</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6099290780141844</v>
+        <v>0.7801418439716312</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6312056737588653</v>
+        <v>0.7801418439716312</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6312056737588653</v>
+        <v>0.8226950354609929</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6453900709219859</v>
+        <v>0.8226950354609929</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6453900709219859</v>
+        <v>0.8297872340425532</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.7373737373737373</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6524822695035462</v>
+        <v>0.8297872340425532</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.6767676767676768</v>
+        <v>0.7373737373737373</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6524822695035462</v>
+        <v>0.8368794326241135</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.6767676767676768</v>
+        <v>0.7474747474747475</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8368794326241135</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.6868686868686869</v>
+        <v>0.7474747474747475</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.851063829787234</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.6868686868686869</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6808510638297872</v>
+        <v>0.851063829787234</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.696969696969697</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6808510638297872</v>
+        <v>0.8581560283687943</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.696969696969697</v>
+        <v>0.7676767676767676</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7021276595744681</v>
+        <v>0.8581560283687943</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.7070707070707071</v>
+        <v>0.7676767676767676</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7021276595744681</v>
+        <v>0.8652482269503546</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.7070707070707071</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7092198581560284</v>
+        <v>0.8652482269503546</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7092198581560284</v>
+        <v>0.8794326241134752</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7163120567375887</v>
+        <v>0.8794326241134752</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.7373737373737373</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7163120567375887</v>
+        <v>0.9078014184397163</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.7373737373737373</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7304964539007093</v>
+        <v>0.9078014184397163</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7304964539007093</v>
+        <v>0.9219858156028369</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.8585858585858586</v>
       </c>
       <c r="B97" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7375886524822695</v>
+        <v>0.9219858156028369</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.7676767676767676</v>
+        <v>0.8585858585858586</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7375886524822695</v>
+        <v>0.9290780141843972</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.7676767676767676</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7446808510638298</v>
+        <v>0.9290780141843972</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="B100" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7446808510638298</v>
+        <v>0.9361702127659575</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="B101" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C101" t="n">
-        <v>0.75177304964539</v>
+        <v>0.9361702127659575</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C102" t="n">
-        <v>0.75177304964539</v>
+        <v>0.9432624113475178</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.9191919191919192</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7801418439716312</v>
+        <v>0.9432624113475178</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.797979797979798</v>
+        <v>0.9191919191919192</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C104" t="n">
-        <v>0.7801418439716312</v>
+        <v>0.9503546099290781</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.797979797979798</v>
+        <v>0.9292929292929293</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8085106382978723</v>
+        <v>0.9503546099290781</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.8282828282828283</v>
+        <v>0.9292929292929293</v>
       </c>
       <c r="B106" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8085106382978723</v>
+        <v>0.9574468085106383</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.8282828282828283</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8226950354609929</v>
+        <v>0.9574468085106383</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.8585858585858586</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8226950354609929</v>
+        <v>0.9645390070921985</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.8585858585858586</v>
+        <v>0.9797979797979798</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8368794326241135</v>
+        <v>0.9645390070921985</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.8686868686868687</v>
+        <v>0.9797979797979798</v>
       </c>
       <c r="B110" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8368794326241135</v>
+        <v>0.9929078014184397</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>0.8686868686868687</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="B111" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8581560283687943</v>
+        <v>0.9929078014184397</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="B112" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8581560283687943</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="n">
-        <v>0.8787878787878788</v>
+        <v>1</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.57518446880149</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8723404255319149</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.8723404255319149</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.8936170212765957</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="n">
-        <v>0.898989898989899</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.8936170212765957</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="n">
-        <v>0.898989898989899</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.9219858156028369</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.9219858156028369</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.9290780141843972</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="n">
-        <v>0.9191919191919192</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.9290780141843972</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="n">
-        <v>0.9191919191919192</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.9361702127659575</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="n">
-        <v>0.9292929292929293</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.9361702127659575</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="n">
-        <v>0.9292929292929293</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.9503546099290781</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="n">
-        <v>0.9595959595959596</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.9503546099290781</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="n">
-        <v>0.9595959595959596</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.9858156028368794</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="n">
-        <v>0.9696969696969697</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.9858156028368794</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="n">
-        <v>0.9696969696969697</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.9929078014184397</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="n">
-        <v>0.9898989898989899</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.9929078014184397</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="n">
-        <v>0.9898989898989899</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="n">
-        <v>1</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2095,7 +3200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2119,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C2" t="n">
         <v>0.0101010101010101</v>
@@ -2130,7 +3235,7 @@
         <v>0.007092198581560284</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C3" t="n">
         <v>0.0101010101010101</v>
@@ -2141,51 +3246,51 @@
         <v>0.007092198581560284</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.0202020202020202</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.01418439716312057</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.0202020202020202</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.01418439716312057</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04040404040404041</v>
+        <v>0.0303030303030303</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.04964539007092199</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04040404040404041</v>
+        <v>0.0303030303030303</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.04964539007092199</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C8" t="n">
         <v>0.0707070707070707</v>
@@ -2193,10 +3298,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.06382978723404255</v>
+        <v>0.04964539007092199</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C9" t="n">
         <v>0.0707070707070707</v>
@@ -2204,10 +3309,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.06382978723404255</v>
+        <v>0.04964539007092199</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C10" t="n">
         <v>0.08080808080808081</v>
@@ -2215,10 +3320,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.07092198581560284</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C11" t="n">
         <v>0.08080808080808081</v>
@@ -2226,629 +3331,629 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.07092198581560284</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.07801418439716312</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.07801418439716312</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C14" t="n">
-        <v>0.101010101010101</v>
+        <v>0.1212121212121212</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.1063829787234043</v>
+        <v>0.07092198581560284</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C15" t="n">
-        <v>0.101010101010101</v>
+        <v>0.1212121212121212</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.1063829787234043</v>
+        <v>0.07092198581560284</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1414141414141414</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.1276595744680851</v>
+        <v>0.07801418439716312</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1414141414141414</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1276595744680851</v>
+        <v>0.07801418439716312</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1515151515151515</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1418439716312057</v>
+        <v>0.09219858156028368</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1515151515151515</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1418439716312057</v>
+        <v>0.09219858156028368</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1313131313131313</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1631205673758865</v>
+        <v>0.1205673758865248</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1313131313131313</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1631205673758865</v>
+        <v>0.1205673758865248</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1414141414141414</v>
+        <v>0.2121212121212121</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1773049645390071</v>
+        <v>0.1347517730496454</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1414141414141414</v>
+        <v>0.2121212121212121</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1773049645390071</v>
+        <v>0.1347517730496454</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1717171717171717</v>
+        <v>0.2323232323232323</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1914893617021277</v>
+        <v>0.1418439716312057</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1717171717171717</v>
+        <v>0.2323232323232323</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1914893617021277</v>
+        <v>0.1418439716312057</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C26" t="n">
-        <v>0.202020202020202</v>
+        <v>0.2424242424242424</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.2198581560283688</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C27" t="n">
-        <v>0.202020202020202</v>
+        <v>0.2424242424242424</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.2198581560283688</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.2525252525252525</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.2482269503546099</v>
+        <v>0.1631205673758865</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.2525252525252525</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.2482269503546099</v>
+        <v>0.1631205673758865</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2626262626262627</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.2553191489361702</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2626262626262627</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.2553191489361702</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2323232323232323</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.2624113475177305</v>
+        <v>0.1773049645390071</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2323232323232323</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2624113475177305</v>
+        <v>0.1773049645390071</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.2929292929292929</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2695035460992908</v>
+        <v>0.2198581560283688</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.2929292929292929</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.2695035460992908</v>
+        <v>0.2198581560283688</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2626262626262627</v>
+        <v>0.3131313131313131</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.2836879432624114</v>
+        <v>0.2340425531914894</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2626262626262627</v>
+        <v>0.3131313131313131</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.2836879432624114</v>
+        <v>0.2340425531914894</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.2907801418439716</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.2907801418439716</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2929292929292929</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.2978723404255319</v>
+        <v>0.2836879432624114</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2929292929292929</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.2978723404255319</v>
+        <v>0.2836879432624114</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C42" t="n">
-        <v>0.303030303030303</v>
+        <v>0.3838383838383838</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.3191489361702128</v>
+        <v>0.3049645390070922</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C43" t="n">
-        <v>0.303030303030303</v>
+        <v>0.3838383838383838</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.3191489361702128</v>
+        <v>0.3049645390070922</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3131313131313131</v>
+        <v>0.3939393939393939</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3131313131313131</v>
+        <v>0.3939393939393939</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3232323232323233</v>
+        <v>0.404040404040404</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.3475177304964539</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3232323232323233</v>
+        <v>0.404040404040404</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3475177304964539</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4343434343434344</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.3546099290780142</v>
+        <v>0.3971631205673759</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4343434343434344</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3546099290780142</v>
+        <v>0.3971631205673759</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3737373737373738</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3687943262411347</v>
+        <v>0.4184397163120567</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3737373737373738</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.3687943262411347</v>
+        <v>0.4184397163120567</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.494949494949495</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.3900709219858156</v>
+        <v>0.4539007092198581</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.494949494949495</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.3900709219858156</v>
+        <v>0.4539007092198581</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C54" t="n">
-        <v>0.404040404040404</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.4113475177304964</v>
+        <v>0.4822695035460993</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C55" t="n">
-        <v>0.404040404040404</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.4113475177304964</v>
+        <v>0.4822695035460993</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.5656565656565656</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.4184397163120567</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.5656565656565656</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.4184397163120567</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4343434343434344</v>
+        <v>0.5858585858585859</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.4397163120567376</v>
+        <v>0.4964539007092199</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4343434343434344</v>
+        <v>0.5858585858585859</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.4397163120567376</v>
+        <v>0.4964539007092199</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5959595959595959</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.4822695035460993</v>
+        <v>0.5035460992907801</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5959595959595959</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.4822695035460993</v>
+        <v>0.5035460992907801</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.6161616161616161</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.4893617021276596</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.6161616161616161</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.4893617021276596</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.5035460992907801</v>
+        <v>0.5177304964539007</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5035460992907801</v>
+        <v>0.5177304964539007</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.6464646464646465</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.5106382978723404</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.6464646464646465</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.5106382978723404</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2856,10 +3961,10 @@
         <v>0.5673758865248227</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2867,658 +3972,482 @@
         <v>0.5673758865248227</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.6868686868686869</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.574468085106383</v>
+        <v>0.6028368794326241</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.6868686868686869</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.574468085106383</v>
+        <v>0.6028368794326241</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.7070707070707071</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.5886524822695035</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.7070707070707071</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.5886524822695035</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.7373737373737373</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.6028368794326241</v>
+        <v>0.624113475177305</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.7373737373737373</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.6028368794326241</v>
+        <v>0.624113475177305</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.7474747474747475</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.6099290780141844</v>
+        <v>0.6312056737588653</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.7474747474747475</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.6099290780141844</v>
+        <v>0.6312056737588653</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.6170212765957447</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.6170212765957447</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.7676767676767676</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.6382978723404256</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.7676767676767676</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.6382978723404256</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.6453900709219859</v>
+        <v>0.6950354609929078</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.6453900709219859</v>
+        <v>0.6950354609929078</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.8080808080808081</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.6524822695035462</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.8080808080808081</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.6524822695035462</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.6595744680851063</v>
+        <v>0.7092198581560284</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.6595744680851063</v>
+        <v>0.7092198581560284</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.8484848484848485</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.6808510638297872</v>
+        <v>0.7163120567375887</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.8484848484848485</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.6808510638297872</v>
+        <v>0.7163120567375887</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6464646464646465</v>
+        <v>0.8585858585858586</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.6879432624113475</v>
+        <v>0.75177304964539</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6464646464646465</v>
+        <v>0.8585858585858586</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.6879432624113475</v>
+        <v>0.75177304964539</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6767676767676768</v>
+        <v>0.8686868686868687</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.7021276595744681</v>
+        <v>0.7730496453900709</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6767676767676768</v>
+        <v>0.8686868686868687</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.7021276595744681</v>
+        <v>0.7730496453900709</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6868686868686869</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.7163120567375887</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6868686868686869</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.7163120567375887</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7171717171717171</v>
+        <v>0.898989898989899</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.723404255319149</v>
+        <v>0.7943262411347518</v>
       </c>
       <c r="B97" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7171717171717171</v>
+        <v>0.898989898989899</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.723404255319149</v>
+        <v>0.7943262411347518</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7373737373737373</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.8085106382978723</v>
+        <v>0.8439716312056738</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7373737373737373</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.8085106382978723</v>
+        <v>0.8439716312056738</v>
       </c>
       <c r="B100" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.9191919191919192</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.8156028368794326</v>
+        <v>0.8794326241134752</v>
       </c>
       <c r="B101" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C101" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.9191919191919192</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.8156028368794326</v>
+        <v>0.8794326241134752</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C102" t="n">
-        <v>0.797979797979798</v>
+        <v>0.9292929292929293</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.8226950354609929</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C103" t="n">
-        <v>0.797979797979798</v>
+        <v>0.9292929292929293</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.8226950354609929</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.9393939393939394</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.8368794326241135</v>
+        <v>0.900709219858156</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.9393939393939394</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.8368794326241135</v>
+        <v>0.900709219858156</v>
       </c>
       <c r="B106" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8282828282828283</v>
+        <v>0.9595959595959596</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.8439716312056738</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8282828282828283</v>
+        <v>0.9595959595959596</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.8439716312056738</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8383838383838383</v>
+        <v>0.9696969696969697</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.8723404255319149</v>
+        <v>0.9290780141843972</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8383838383838383</v>
+        <v>0.9696969696969697</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.8723404255319149</v>
+        <v>0.9290780141843972</v>
       </c>
       <c r="B110" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8585858585858586</v>
+        <v>0.9797979797979798</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>0.8794326241134752</v>
+        <v>0.9929078014184397</v>
       </c>
       <c r="B111" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8585858585858586</v>
+        <v>0.9797979797979798</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
-        <v>0.8794326241134752</v>
+        <v>0.9929078014184397</v>
       </c>
       <c r="B112" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8686868686868687</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="n">
-        <v>0.900709219858156</v>
+        <v>1</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4871409126728276</v>
+        <v>0.5751844688014901</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8686868686868687</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="n">
-        <v>0.900709219858156</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.8787878787878788</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="n">
-        <v>0.9078014184397163</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.8787878787878788</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="n">
-        <v>0.9078014184397163</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="n">
-        <v>0.9219858156028369</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="n">
-        <v>0.9219858156028369</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.9191919191919192</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="n">
-        <v>0.9290780141843972</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.9191919191919192</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="n">
-        <v>0.9290780141843972</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.9393939393939394</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="n">
-        <v>0.9361702127659575</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.9393939393939394</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="n">
-        <v>0.9361702127659575</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.9696969696969697</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="n">
-        <v>0.9432624113475178</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.9696969696969697</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="n">
-        <v>0.9432624113475178</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.9797979797979798</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="n">
-        <v>0.9645390070921985</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.9797979797979798</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="n">
-        <v>0.9645390070921985</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.9898989898989899</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="n">
-        <v>0.9787234042553191</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.9898989898989899</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="n">
-        <v>0.9787234042553191</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="n">
-        <v>1</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.4871409126728276</v>
-      </c>
-      <c r="C129" t="n">
         <v>1</v>
       </c>
     </row>
